--- a/data/raw/University_of_Michigan_Consumer_Sentiment_data.xlsx
+++ b/data/raw/University_of_Michigan_Consumer_Sentiment_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="417">
   <si>
     <t xml:space="preserve">realtime_start</t>
   </si>
@@ -29,1036 +29,985 @@
     <t xml:space="preserve">2025-02-22</t>
   </si>
   <si>
-    <t xml:space="preserve">2005-01-01</t>
+    <t xml:space="preserve">2006-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-01</t>
   </si>
   <si>
     <t xml:space="preserve">95.5</t>
   </si>
   <si>
-    <t xml:space="preserve">2005-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-08-01</t>
+    <t xml:space="preserve">2019-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-01</t>
   </si>
   <si>
     <t xml:space="preserve">89.1</t>
   </si>
   <si>
-    <t xml:space="preserve">2005-09-01</t>
+    <t xml:space="preserve">2020-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-01</t>
   </si>
   <si>
     <t xml:space="preserve">76.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-01</t>
   </si>
   <si>
     <t xml:space="preserve">2020-12-01</t>
@@ -1950,7 +1899,7 @@
         <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
@@ -1961,10 +1910,10 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
         <v>47</v>
-      </c>
-      <c r="D23" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="24">
@@ -1975,10 +1924,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
         <v>49</v>
-      </c>
-      <c r="D24" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="25">
@@ -1989,10 +1938,10 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
         <v>51</v>
-      </c>
-      <c r="D25" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -2003,10 +1952,10 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
         <v>53</v>
-      </c>
-      <c r="D26" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="27">
@@ -2017,10 +1966,10 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
         <v>55</v>
-      </c>
-      <c r="D27" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="28">
@@ -2031,10 +1980,10 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
         <v>57</v>
-      </c>
-      <c r="D28" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="29">
@@ -2045,10 +1994,10 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
         <v>59</v>
-      </c>
-      <c r="D29" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="30">
@@ -2059,10 +2008,10 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
         <v>61</v>
-      </c>
-      <c r="D30" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="31">
@@ -2073,10 +2022,10 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
         <v>63</v>
-      </c>
-      <c r="D31" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="32">
@@ -2087,10 +2036,10 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" t="s">
         <v>65</v>
-      </c>
-      <c r="D32" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="33">
@@ -2101,10 +2050,10 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" t="s">
         <v>67</v>
-      </c>
-      <c r="D33" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="34">
@@ -2115,10 +2064,10 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
         <v>69</v>
-      </c>
-      <c r="D34" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="35">
@@ -2174,7 +2123,7 @@
         <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39">
@@ -2185,10 +2134,10 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" t="s">
         <v>78</v>
-      </c>
-      <c r="D39" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="40">
@@ -2199,10 +2148,10 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" t="s">
         <v>80</v>
-      </c>
-      <c r="D40" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="41">
@@ -2213,10 +2162,10 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" t="s">
         <v>82</v>
-      </c>
-      <c r="D41" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="42">
@@ -2227,10 +2176,10 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" t="s">
         <v>84</v>
-      </c>
-      <c r="D42" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="43">
@@ -2241,10 +2190,10 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44">
@@ -2255,10 +2204,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45">
@@ -2269,10 +2218,10 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46">
@@ -2283,10 +2232,10 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47">
@@ -2297,10 +2246,10 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48">
@@ -2311,10 +2260,10 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49">
@@ -2325,10 +2274,10 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D49" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50">
@@ -2339,10 +2288,10 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D50" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51">
@@ -2353,10 +2302,10 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" t="s">
         <v>101</v>
-      </c>
-      <c r="D51" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="52">
@@ -2367,10 +2316,10 @@
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D52" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53">
@@ -2381,10 +2330,10 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54">
@@ -2395,10 +2344,10 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55">
@@ -2409,10 +2358,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D55" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56">
@@ -2423,10 +2372,10 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57">
@@ -2437,10 +2386,10 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58">
@@ -2451,10 +2400,10 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59">
@@ -2465,10 +2414,10 @@
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60">
@@ -2479,10 +2428,10 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61">
@@ -2493,10 +2442,10 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62">
@@ -2507,10 +2456,10 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63">
@@ -2521,10 +2470,10 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64">
@@ -2535,7 +2484,7 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D64" t="s">
         <v>125</v>
@@ -2549,10 +2498,10 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
+        <v>126</v>
+      </c>
+      <c r="D65" t="s">
         <v>127</v>
-      </c>
-      <c r="D65" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="66">
@@ -2563,10 +2512,10 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" t="s">
         <v>129</v>
-      </c>
-      <c r="D66" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="67">
@@ -2650,7 +2599,7 @@
         <v>140</v>
       </c>
       <c r="D72" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73">
@@ -2661,10 +2610,10 @@
         <v>4</v>
       </c>
       <c r="C73" t="s">
+        <v>141</v>
+      </c>
+      <c r="D73" t="s">
         <v>142</v>
-      </c>
-      <c r="D73" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="74">
@@ -2675,10 +2624,10 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74" t="s">
         <v>144</v>
-      </c>
-      <c r="D74" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="75">
@@ -2776,7 +2725,7 @@
         <v>157</v>
       </c>
       <c r="D81" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82">
@@ -2787,10 +2736,10 @@
         <v>4</v>
       </c>
       <c r="C82" t="s">
+        <v>158</v>
+      </c>
+      <c r="D82" t="s">
         <v>159</v>
-      </c>
-      <c r="D82" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="83">
@@ -2801,10 +2750,10 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
+        <v>160</v>
+      </c>
+      <c r="D83" t="s">
         <v>161</v>
-      </c>
-      <c r="D83" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="84">
@@ -2815,10 +2764,10 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
+        <v>162</v>
+      </c>
+      <c r="D84" t="s">
         <v>163</v>
-      </c>
-      <c r="D84" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="85">
@@ -2888,7 +2837,7 @@
         <v>172</v>
       </c>
       <c r="D89" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90">
@@ -2899,10 +2848,10 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
+        <v>173</v>
+      </c>
+      <c r="D90" t="s">
         <v>174</v>
-      </c>
-      <c r="D90" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="91">
@@ -2913,10 +2862,10 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
+        <v>175</v>
+      </c>
+      <c r="D91" t="s">
         <v>176</v>
-      </c>
-      <c r="D91" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="92">
@@ -2927,10 +2876,10 @@
         <v>4</v>
       </c>
       <c r="C92" t="s">
+        <v>177</v>
+      </c>
+      <c r="D92" t="s">
         <v>178</v>
-      </c>
-      <c r="D92" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="93">
@@ -2941,10 +2890,10 @@
         <v>4</v>
       </c>
       <c r="C93" t="s">
+        <v>179</v>
+      </c>
+      <c r="D93" t="s">
         <v>180</v>
-      </c>
-      <c r="D93" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="94">
@@ -2958,7 +2907,7 @@
         <v>181</v>
       </c>
       <c r="D94" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95">
@@ -2969,10 +2918,10 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D95" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96">
@@ -2983,10 +2932,10 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97">
@@ -2997,10 +2946,10 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98">
@@ -3011,10 +2960,10 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D98" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99">
@@ -3025,10 +2974,10 @@
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D99" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="100">
@@ -3039,10 +2988,10 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D100" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="101">
@@ -3053,10 +3002,10 @@
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D101" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="102">
@@ -3067,10 +3016,10 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D102" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="103">
@@ -3081,10 +3030,10 @@
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D103" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="104">
@@ -3095,10 +3044,10 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D104" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="105">
@@ -3109,10 +3058,10 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D105" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106">
@@ -3123,10 +3072,10 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D106" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107">
@@ -3137,10 +3086,10 @@
         <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D107" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108">
@@ -3151,10 +3100,10 @@
         <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D108" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="109">
@@ -3165,10 +3114,10 @@
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D109" t="s">
-        <v>209</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110">
@@ -3179,10 +3128,10 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D110" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="111">
@@ -3193,10 +3142,10 @@
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D111" t="s">
-        <v>26</v>
+        <v>210</v>
       </c>
     </row>
     <row r="112">
@@ -3207,10 +3156,10 @@
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D112" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="113">
@@ -3221,10 +3170,10 @@
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D113" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="114">
@@ -3235,10 +3184,10 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
+        <v>215</v>
+      </c>
+      <c r="D114" t="s">
         <v>216</v>
-      </c>
-      <c r="D114" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="115">
@@ -3249,10 +3198,10 @@
         <v>4</v>
       </c>
       <c r="C115" t="s">
+        <v>217</v>
+      </c>
+      <c r="D115" t="s">
         <v>218</v>
-      </c>
-      <c r="D115" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="116">
@@ -3280,7 +3229,7 @@
         <v>221</v>
       </c>
       <c r="D117" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
     </row>
     <row r="118">
@@ -3291,10 +3240,10 @@
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D118" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="119">
@@ -3305,10 +3254,10 @@
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D119" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
     </row>
     <row r="120">
@@ -3319,10 +3268,10 @@
         <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D120" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121">
@@ -3333,10 +3282,10 @@
         <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D121" t="s">
-        <v>48</v>
+        <v>229</v>
       </c>
     </row>
     <row r="122">
@@ -3347,10 +3296,10 @@
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D122" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="123">
@@ -3361,10 +3310,10 @@
         <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D123" t="s">
-        <v>231</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124">
@@ -3375,10 +3324,10 @@
         <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D124" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="125">
@@ -3389,10 +3338,10 @@
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D125" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="126">
@@ -3403,10 +3352,10 @@
         <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D126" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="127">
@@ -3417,10 +3366,10 @@
         <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D127" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="128">
@@ -3431,10 +3380,10 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D128" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="129">
@@ -3445,10 +3394,10 @@
         <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D129" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="130">
@@ -3459,10 +3408,10 @@
         <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D130" t="s">
-        <v>245</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131">
@@ -3476,7 +3425,7 @@
         <v>246</v>
       </c>
       <c r="D131" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
     </row>
     <row r="132">
@@ -3487,10 +3436,10 @@
         <v>4</v>
       </c>
       <c r="C132" t="s">
+        <v>247</v>
+      </c>
+      <c r="D132" t="s">
         <v>248</v>
-      </c>
-      <c r="D132" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="133">
@@ -3504,7 +3453,7 @@
         <v>249</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>250</v>
       </c>
     </row>
     <row r="134">
@@ -3515,10 +3464,10 @@
         <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D134" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="135">
@@ -3529,10 +3478,10 @@
         <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D135" t="s">
-        <v>52</v>
+        <v>254</v>
       </c>
     </row>
     <row r="136">
@@ -3543,10 +3492,10 @@
         <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D136" t="s">
-        <v>254</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137">
@@ -3557,10 +3506,10 @@
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D137" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="138">
@@ -3571,10 +3520,10 @@
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D138" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="139">
@@ -3585,10 +3534,10 @@
         <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D139" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="140">
@@ -3599,10 +3548,10 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D140" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="141">
@@ -3613,10 +3562,10 @@
         <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D141" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="142">
@@ -3627,10 +3576,10 @@
         <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D142" t="s">
-        <v>30</v>
+        <v>267</v>
       </c>
     </row>
     <row r="143">
@@ -3641,10 +3590,10 @@
         <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D143" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
     </row>
     <row r="144">
@@ -3655,10 +3604,10 @@
         <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D144" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="145">
@@ -3669,10 +3618,10 @@
         <v>4</v>
       </c>
       <c r="C145" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D145" t="s">
-        <v>270</v>
+        <v>214</v>
       </c>
     </row>
     <row r="146">
@@ -3683,10 +3632,10 @@
         <v>4</v>
       </c>
       <c r="C146" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D146" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="147">
@@ -3697,10 +3646,10 @@
         <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D147" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="148">
@@ -3711,10 +3660,10 @@
         <v>4</v>
       </c>
       <c r="C148" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D148" t="s">
-        <v>54</v>
+        <v>277</v>
       </c>
     </row>
     <row r="149">
@@ -3725,10 +3674,10 @@
         <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D149" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="150">
@@ -3739,10 +3688,10 @@
         <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D150" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="151">
@@ -3753,10 +3702,10 @@
         <v>4</v>
       </c>
       <c r="C151" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D151" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
     </row>
     <row r="152">
@@ -3767,10 +3716,10 @@
         <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D152" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="153">
@@ -3781,10 +3730,10 @@
         <v>4</v>
       </c>
       <c r="C153" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D153" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="154">
@@ -3795,10 +3744,10 @@
         <v>4</v>
       </c>
       <c r="C154" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D154" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="155">
@@ -3809,10 +3758,10 @@
         <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D155" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="156">
@@ -3823,10 +3772,10 @@
         <v>4</v>
       </c>
       <c r="C156" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D156" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
     </row>
     <row r="157">
@@ -3837,10 +3786,10 @@
         <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D157" t="s">
-        <v>235</v>
+        <v>294</v>
       </c>
     </row>
     <row r="158">
@@ -3851,10 +3800,10 @@
         <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D158" t="s">
-        <v>293</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159">
@@ -3865,10 +3814,10 @@
         <v>4</v>
       </c>
       <c r="C159" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D159" t="s">
-        <v>295</v>
+        <v>248</v>
       </c>
     </row>
     <row r="160">
@@ -3879,10 +3828,10 @@
         <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D160" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="161">
@@ -3893,10 +3842,10 @@
         <v>4</v>
       </c>
       <c r="C161" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D161" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="162">
@@ -3907,10 +3856,10 @@
         <v>4</v>
       </c>
       <c r="C162" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D162" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="163">
@@ -3921,10 +3870,10 @@
         <v>4</v>
       </c>
       <c r="C163" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D163" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="164">
@@ -3935,10 +3884,10 @@
         <v>4</v>
       </c>
       <c r="C164" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D164" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="165">
@@ -3952,7 +3901,7 @@
         <v>305</v>
       </c>
       <c r="D165" t="s">
-        <v>306</v>
+        <v>244</v>
       </c>
     </row>
     <row r="166">
@@ -3963,10 +3912,10 @@
         <v>4</v>
       </c>
       <c r="C166" t="s">
+        <v>306</v>
+      </c>
+      <c r="D166" t="s">
         <v>307</v>
-      </c>
-      <c r="D166" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="167">
@@ -3977,10 +3926,10 @@
         <v>4</v>
       </c>
       <c r="C167" t="s">
+        <v>308</v>
+      </c>
+      <c r="D167" t="s">
         <v>309</v>
-      </c>
-      <c r="D167" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="168">
@@ -3991,10 +3940,10 @@
         <v>4</v>
       </c>
       <c r="C168" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D168" t="s">
-        <v>312</v>
+        <v>265</v>
       </c>
     </row>
     <row r="169">
@@ -4005,10 +3954,10 @@
         <v>4</v>
       </c>
       <c r="C169" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D169" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="170">
@@ -4019,10 +3968,10 @@
         <v>4</v>
       </c>
       <c r="C170" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D170" t="s">
-        <v>30</v>
+        <v>314</v>
       </c>
     </row>
     <row r="171">
@@ -4033,10 +3982,10 @@
         <v>4</v>
       </c>
       <c r="C171" t="s">
+        <v>315</v>
+      </c>
+      <c r="D171" t="s">
         <v>316</v>
-      </c>
-      <c r="D171" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="172">
@@ -4078,7 +4027,7 @@
         <v>321</v>
       </c>
       <c r="D174" t="s">
-        <v>322</v>
+        <v>156</v>
       </c>
     </row>
     <row r="175">
@@ -4089,10 +4038,10 @@
         <v>4</v>
       </c>
       <c r="C175" t="s">
+        <v>322</v>
+      </c>
+      <c r="D175" t="s">
         <v>323</v>
-      </c>
-      <c r="D175" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="176">
@@ -4106,7 +4055,7 @@
         <v>324</v>
       </c>
       <c r="D176" t="s">
-        <v>318</v>
+        <v>97</v>
       </c>
     </row>
     <row r="177">
@@ -4120,7 +4069,7 @@
         <v>325</v>
       </c>
       <c r="D177" t="s">
-        <v>264</v>
+        <v>326</v>
       </c>
     </row>
     <row r="178">
@@ -4131,10 +4080,10 @@
         <v>4</v>
       </c>
       <c r="C178" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D178" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="179">
@@ -4145,10 +4094,10 @@
         <v>4</v>
       </c>
       <c r="C179" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D179" t="s">
-        <v>6</v>
+        <v>198</v>
       </c>
     </row>
     <row r="180">
@@ -4159,10 +4108,10 @@
         <v>4</v>
       </c>
       <c r="C180" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D180" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
     </row>
     <row r="181">
@@ -4173,10 +4122,10 @@
         <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D181" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="182">
@@ -4187,10 +4136,10 @@
         <v>4</v>
       </c>
       <c r="C182" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D182" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="183">
@@ -4201,10 +4150,10 @@
         <v>4</v>
       </c>
       <c r="C183" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D183" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="184">
@@ -4215,10 +4164,10 @@
         <v>4</v>
       </c>
       <c r="C184" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D184" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="185">
@@ -4229,10 +4178,10 @@
         <v>4</v>
       </c>
       <c r="C185" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D185" t="s">
-        <v>338</v>
+        <v>38</v>
       </c>
     </row>
     <row r="186">
@@ -4243,10 +4192,10 @@
         <v>4</v>
       </c>
       <c r="C186" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D186" t="s">
-        <v>179</v>
+        <v>341</v>
       </c>
     </row>
     <row r="187">
@@ -4257,10 +4206,10 @@
         <v>4</v>
       </c>
       <c r="C187" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D187" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="188">
@@ -4271,10 +4220,10 @@
         <v>4</v>
       </c>
       <c r="C188" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D188" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
     </row>
     <row r="189">
@@ -4285,10 +4234,10 @@
         <v>4</v>
       </c>
       <c r="C189" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D189" t="s">
-        <v>344</v>
+        <v>69</v>
       </c>
     </row>
     <row r="190">
@@ -4299,10 +4248,10 @@
         <v>4</v>
       </c>
       <c r="C190" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D190" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="191">
@@ -4313,10 +4262,10 @@
         <v>4</v>
       </c>
       <c r="C191" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D191" t="s">
-        <v>220</v>
+        <v>349</v>
       </c>
     </row>
     <row r="192">
@@ -4327,10 +4276,10 @@
         <v>4</v>
       </c>
       <c r="C192" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D192" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
     </row>
     <row r="193">
@@ -4341,10 +4290,10 @@
         <v>4</v>
       </c>
       <c r="C193" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D193" t="s">
-        <v>350</v>
+        <v>93</v>
       </c>
     </row>
     <row r="194">
@@ -4355,10 +4304,10 @@
         <v>4</v>
       </c>
       <c r="C194" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D194" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="195">
@@ -4369,10 +4318,10 @@
         <v>4</v>
       </c>
       <c r="C195" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D195" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="196">
@@ -4383,10 +4332,10 @@
         <v>4</v>
       </c>
       <c r="C196" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D196" t="s">
-        <v>40</v>
+        <v>357</v>
       </c>
     </row>
     <row r="197">
@@ -4397,10 +4346,10 @@
         <v>4</v>
       </c>
       <c r="C197" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D197" t="s">
-        <v>62</v>
+        <v>359</v>
       </c>
     </row>
     <row r="198">
@@ -4411,10 +4360,10 @@
         <v>4</v>
       </c>
       <c r="C198" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D198" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="199">
@@ -4425,10 +4374,10 @@
         <v>4</v>
       </c>
       <c r="C199" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D199" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="200">
@@ -4439,10 +4388,10 @@
         <v>4</v>
       </c>
       <c r="C200" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D200" t="s">
-        <v>211</v>
+        <v>365</v>
       </c>
     </row>
     <row r="201">
@@ -4453,10 +4402,10 @@
         <v>4</v>
       </c>
       <c r="C201" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D201" t="s">
-        <v>93</v>
+        <v>367</v>
       </c>
     </row>
     <row r="202">
@@ -4467,10 +4416,10 @@
         <v>4</v>
       </c>
       <c r="C202" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D202" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="203">
@@ -4481,10 +4430,10 @@
         <v>4</v>
       </c>
       <c r="C203" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="D203" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="204">
@@ -4495,10 +4444,10 @@
         <v>4</v>
       </c>
       <c r="C204" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D204" t="s">
-        <v>119</v>
+        <v>373</v>
       </c>
     </row>
     <row r="205">
@@ -4509,10 +4458,10 @@
         <v>4</v>
       </c>
       <c r="C205" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D205" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
     </row>
     <row r="206">
@@ -4523,10 +4472,10 @@
         <v>4</v>
       </c>
       <c r="C206" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D206" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="207">
@@ -4537,10 +4486,10 @@
         <v>4</v>
       </c>
       <c r="C207" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="D207" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="208">
@@ -4551,10 +4500,10 @@
         <v>4</v>
       </c>
       <c r="C208" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="D208" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="209">
@@ -4565,10 +4514,10 @@
         <v>4</v>
       </c>
       <c r="C209" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="D209" t="s">
-        <v>376</v>
+        <v>133</v>
       </c>
     </row>
     <row r="210">
@@ -4579,10 +4528,10 @@
         <v>4</v>
       </c>
       <c r="C210" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D210" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="211">
@@ -4593,10 +4542,10 @@
         <v>4</v>
       </c>
       <c r="C211" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D211" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="212">
@@ -4607,10 +4556,10 @@
         <v>4</v>
       </c>
       <c r="C212" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D212" t="s">
-        <v>382</v>
+        <v>131</v>
       </c>
     </row>
     <row r="213">
@@ -4621,10 +4570,10 @@
         <v>4</v>
       </c>
       <c r="C213" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D213" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="214">
@@ -4635,10 +4584,10 @@
         <v>4</v>
       </c>
       <c r="C214" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D214" t="s">
-        <v>386</v>
+        <v>109</v>
       </c>
     </row>
     <row r="215">
@@ -4649,10 +4598,10 @@
         <v>4</v>
       </c>
       <c r="C215" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D215" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="216">
@@ -4663,10 +4612,10 @@
         <v>4</v>
       </c>
       <c r="C216" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D216" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="217">
@@ -4677,10 +4626,10 @@
         <v>4</v>
       </c>
       <c r="C217" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D217" t="s">
-        <v>85</v>
+        <v>395</v>
       </c>
     </row>
     <row r="218">
@@ -4691,10 +4640,10 @@
         <v>4</v>
       </c>
       <c r="C218" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D218" t="s">
-        <v>393</v>
+        <v>335</v>
       </c>
     </row>
     <row r="219">
@@ -4705,10 +4654,10 @@
         <v>4</v>
       </c>
       <c r="C219" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D219" t="s">
-        <v>395</v>
+        <v>331</v>
       </c>
     </row>
     <row r="220">
@@ -4719,10 +4668,10 @@
         <v>4</v>
       </c>
       <c r="C220" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D220" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="221">
@@ -4733,10 +4682,10 @@
         <v>4</v>
       </c>
       <c r="C221" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D221" t="s">
-        <v>156</v>
+        <v>401</v>
       </c>
     </row>
     <row r="222">
@@ -4747,10 +4696,10 @@
         <v>4</v>
       </c>
       <c r="C222" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D222" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="223">
@@ -4761,10 +4710,10 @@
         <v>4</v>
       </c>
       <c r="C223" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D223" t="s">
-        <v>402</v>
+        <v>113</v>
       </c>
     </row>
     <row r="224">
@@ -4775,10 +4724,10 @@
         <v>4</v>
       </c>
       <c r="C224" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D224" t="s">
-        <v>154</v>
+        <v>406</v>
       </c>
     </row>
     <row r="225">
@@ -4789,10 +4738,10 @@
         <v>4</v>
       </c>
       <c r="C225" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D225" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="226">
@@ -4803,10 +4752,10 @@
         <v>4</v>
       </c>
       <c r="C226" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D226" t="s">
-        <v>133</v>
+        <v>410</v>
       </c>
     </row>
     <row r="227">
@@ -4817,10 +4766,10 @@
         <v>4</v>
       </c>
       <c r="C227" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D227" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="228">
@@ -4831,10 +4780,10 @@
         <v>4</v>
       </c>
       <c r="C228" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D228" t="s">
-        <v>410</v>
+        <v>320</v>
       </c>
     </row>
     <row r="229">
@@ -4845,10 +4794,10 @@
         <v>4</v>
       </c>
       <c r="C229" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D229" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="230">
@@ -4859,178 +4808,10 @@
         <v>4</v>
       </c>
       <c r="C230" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D230" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>4</v>
-      </c>
-      <c r="B231" t="s">
-        <v>4</v>
-      </c>
-      <c r="C231" t="s">
-        <v>414</v>
-      </c>
-      <c r="D231" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>4</v>
-      </c>
-      <c r="B232" t="s">
-        <v>4</v>
-      </c>
-      <c r="C232" t="s">
-        <v>415</v>
-      </c>
-      <c r="D232" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>4</v>
-      </c>
-      <c r="B233" t="s">
-        <v>4</v>
-      </c>
-      <c r="C233" t="s">
-        <v>417</v>
-      </c>
-      <c r="D233" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s">
-        <v>4</v>
-      </c>
-      <c r="B234" t="s">
-        <v>4</v>
-      </c>
-      <c r="C234" t="s">
-        <v>419</v>
-      </c>
-      <c r="D234" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s">
-        <v>4</v>
-      </c>
-      <c r="B235" t="s">
-        <v>4</v>
-      </c>
-      <c r="C235" t="s">
-        <v>421</v>
-      </c>
-      <c r="D235" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s">
-        <v>4</v>
-      </c>
-      <c r="B236" t="s">
-        <v>4</v>
-      </c>
-      <c r="C236" t="s">
-        <v>422</v>
-      </c>
-      <c r="D236" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s">
-        <v>4</v>
-      </c>
-      <c r="B237" t="s">
-        <v>4</v>
-      </c>
-      <c r="C237" t="s">
-        <v>424</v>
-      </c>
-      <c r="D237" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s">
-        <v>4</v>
-      </c>
-      <c r="B238" t="s">
-        <v>4</v>
-      </c>
-      <c r="C238" t="s">
-        <v>426</v>
-      </c>
-      <c r="D238" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s">
-        <v>4</v>
-      </c>
-      <c r="B239" t="s">
-        <v>4</v>
-      </c>
-      <c r="C239" t="s">
-        <v>428</v>
-      </c>
-      <c r="D239" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s">
-        <v>4</v>
-      </c>
-      <c r="B240" t="s">
-        <v>4</v>
-      </c>
-      <c r="C240" t="s">
-        <v>430</v>
-      </c>
-      <c r="D240" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s">
-        <v>4</v>
-      </c>
-      <c r="B241" t="s">
-        <v>4</v>
-      </c>
-      <c r="C241" t="s">
-        <v>431</v>
-      </c>
-      <c r="D241" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s">
-        <v>4</v>
-      </c>
-      <c r="B242" t="s">
-        <v>4</v>
-      </c>
-      <c r="C242" t="s">
-        <v>433</v>
-      </c>
-      <c r="D242" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
